--- a/results/qa_full-v3_cs-500_fused_hybe.xlsx
+++ b/results/qa_full-v3_cs-500_fused_hybe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,13 +483,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Huawei's revenue in 2021 was CNY636,807 million and in 2022 was CNY642,338 million.</t>
+          <t>Huawei's revenue in CNY for 2021 was 636,807 million and for 2022 was 642,338 million.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer's revenue figures for both years do not match the ground truth. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer states the revenue was 636,807 million CNY in 2021 and 642,338 million CNY in 2022.",
+"reason": "The predicted answer's revenue figures for both 2021 and 2022 do not match the ground truth. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer states the revenue was 636,807 million CNY in 2021 and 642,338 million CNY in 2022.",
 "answer": False
 }</t>
         </is>
@@ -516,13 +516,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Over the past three years by the end of 2023, Huawei invested more than 20% of its annual sales revenue into R&amp;D.</t>
+          <t>Over the past three years by the end of 2023, Huawei invested more than 20% of its annual sales revenue back into R&amp;D each year.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth information, stating that Huawei invested more than 20% of its annual sales revenue into R&amp;D over the past three years by the end of 2023.",
+"reason": "The predicted answer matches the ground truth information, stating that Huawei invested more than 20% of its annual sales revenue back into R&amp;D each year over the past three years by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -555,7 +555,7 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth information exactly, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
+"reason": "The predicted answer matches the ground truth answer exactly, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -567,94 +567,94 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
+          <t>What was the total number of 5G users globally serviced by Huawei by the end of 2023?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nearly 11%</t>
+          <t>More than 1.5 billion users</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>McDonald's global comparable sales growth rate in 2023 was 9% compared to 2022.</t>
+          <t>By the end of 2023, the number of 5G users globally serviced by Huawei had exceeded 1.5 billion.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>{
-"reason": "The key information predicted answer (9%) is different from the ground truth answer (Nearly 11%).",
-"answer": False
+"reason": "The predicted answer matches the ground truth information, stating that the number of 5G users globally serviced by Huawei had exceeded 1.5 billion by the end of 2023.",
+"answer": True
 }</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+          <t>How many people has Huawei's Seeds for the Future program benefited as of 2023?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nearly $20 billion</t>
+          <t>More than 3.4 million people</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>McDonald's Systemwide sales increased by nearly $30 billion since 2020 by the end of 2022.</t>
+          <t>As of 2023, Huawei's Seeds for the Future program has benefited over 3.4 million people.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer is incorrect because it states that McDonald's systemwide sales increased by nearly $30 billion since 2020 by the end of 2022, while the ground truth is that the increase was nearly $20 billion.",
-"answer": False
+"reason": "The predicted answer matches the ground truth information, stating that Huawei's Seeds for the Future program has benefited over 3.4 million people as of 2023.",
+"answer": True
 }</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+          <t>What was Huawei's net profit in CNY for the years 2021 and 2022?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Almost 50 million</t>
+          <t>113,718 million CNY in 2021 and 35,562 million CNY in 2022</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.</t>
+          <t>Huawei's net profit for 2021 was CNY113,718 million and for 2022 was CNY35,562 million.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
+"reason": "The predicted answer matches the ground truth data exactly, providing the correct net profit figures for Huawei in CNY for both 2021 and 2022.",
 "answer": True
 }</t>
         </is>
@@ -666,28 +666,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+          <t>What operating margin percentage did Huawei achieve in 2023?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited's net profit in 2021 was $4.86 billion, and it increased by 18% to $5.75 billion in 2022.</t>
+          <t>Huawei's operating margin percentage for 2023 is not specified in the provided information.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth in terms of the net profit figures for both 2021 and 2022, and it correctly states the increase in net profit from 2021 to 2022. The slight difference in the 2021 figure ($4.86 billion vs. S$4,858 million) is due to rounding but does not change the factual accuracy of the response.",
+"reason": "Since the predicted answer states that the specific information about Huawei's operating margin percentage for 2023 is not provided, and it aligns with the inability to provide a direct answer from the available data, the response is considered correct under the given rule.",
 "answer": True
 }</t>
         </is>
@@ -699,28 +699,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+          <t>How many developers had joined HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+          <t>More than 9.5 million developers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited pledged to achieve $50 billion in sustainable financing commitments by 2025 and reached a total commitment amount of $44 billion by 2022.</t>
+          <t>More than 9.5 million developers had joined the HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth in terms of the amounts pledged and achieved by Oversea-Chinese Banking Corporation Limited for sustainable financing commitments by 2025 and the total commitment amount reached by 2022. The currency symbol 'S$' in the ground truth is understood to represent Singapore dollars, which is implied in the predicted answer by the context of OCBC being a Singapore-based bank.",
+"reason": "The key information in the predicted answer matches the ground truth answer, which is that more than 9.5 million developers had joined the HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -732,28 +732,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+          <t>By 2022, how many countries and regions was Huawei providing its stable, reliable, secure, trustworthy, and sustainable cloud services to?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+          <t>More than 170 countries and regions</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sorry, I do not have an accurate answer for this.</t>
+          <t>By 2022, Huawei was providing its cloud services to more than 170 countries and regions.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer indicates an inability to provide specific details requested in the question, which aligns with the protocol for cases where accurate information cannot be found. Therefore, the response is treated as correct according to the given rule.",
+"reason": "The predicted answer matches the ground truth answer, stating that Huawei was providing its cloud services to more than 170 countries and regions by 2022.",
 "answer": True
 }</t>
         </is>
@@ -765,28 +765,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+          <t>What was Huawei's total liability ratio in 2022 and 2023?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+          <t>58.9% in 2022 and 59.8% in 2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Shell plc's income in 2023 was $19,359 million, compared to $42,309 million in 2022.</t>
+          <t>Sorry, I do not have an accurate answer for this.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer closely matches the ground truth with specific figures provided for both years, which align with the approximate values given in the ground truth.", 
+"reason": "Since the predicted answer indicates an inability to provide the specific figures requested, it acknowledges the lack of accurate information available up to the knowledge cutoff in 2023. Therefore, the response is treated as correct because it does not provide incorrect information.",
 "answer": True
 }</t>
         </is>
@@ -798,66 +798,990 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+          <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$23 billion</t>
+          <t>Nearly 11%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>In 2023, Shell plc returned $23 billion to shareholders through share buybacks and dividends.</t>
+          <t>McDonald's global comparable sales growth rate in 2023 was 9%.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer exactly, stating that Shell plc returned $23 billion to shareholders through share buybacks and dividends in 2023.",
-"answer": True
+"reason": "The predicted answer is incorrect because it states a growth rate of 9%, while the ground truth is nearly 11%.",
+"answer": False
 }</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nearly $20 billion</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>McDonald's added nearly $30 billion in Systemwide sales since 2020 by the end of 2022.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is incorrect because it states that McDonald's added nearly $30 billion in Systemwide sales since 2020 by the end of 2022, while the ground truth answer is that the increase was nearly $20 billion.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Almost 50 million</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>What was the quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$1.67</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024 is $1.67.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, how many active loyalty users was McDonald's connecting with across 50 markets?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>150 million</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, McDonald's was connecting with 150 million active loyalty users across 50 markets.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information, stating that McDonald's was connecting with 150 million active loyalty users across 50 markets by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>What is McDonald’s global systemwide sales goal in terms of restaurant count by the end of 2027?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>50,000 restaurants</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating that McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>What was McDonald's global comparable sales growth in 2023?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>McDonald's global comparable sales growth in 2023 was 9%.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>How much did McDonald's global guest counts grow in 2022?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>McDonald's global guest counts grew by 5% in 2022.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>What was McDonald's record global Systemwide sales in 2021?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$112 billion</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>McDonald's record global Systemwide sales in 2021 were $112 billion.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that McDonald's record global Systemwide sales in 2021 were $112 billion.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>How many new leadership roles were created at McDonald’s as part of evolving the Accelerating the Arches strategy in 2022?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Several, including Executive Vice President, Global Chief Marketing Officer and New Business Ventures, and President, Global Business Services</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Two new leadership roles were created at McDonald's as part of evolving the Accelerating the Arches strategy in 2022.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The ground truth specifies that several new leadership roles were created, including Executive Vice President, Global Chief Marketing Officer and New Business Ventures, and President, Global Business Services, which indicates more than two roles. The predicted answer incorrectly states that only two new leadership roles were created.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited's net profit in 2021 was $4.86 billion, and it increased to $5.75 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth in terms of the net profit figures for both 2021 and 2022, with a slight rounding difference for the 2021 figure ($4.86 billion vs. S$4,858 million). The change in net profit from 2021 to 2022 is correctly described as an increase.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited pledged towards achieving $50 billion in sustainable financing commitments by 2025 and reached a total commitment amount of $44 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information regarding the amount pledged by Oversea-Chinese Banking Corporation Limited for sustainable financing commitments by 2025 ($50 billion) and the total commitment amount reached by 2022 ($44 billion).",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer indicates an inability to provide specific information requested, which aligns with the protocol for cases where the answer cannot be found. Therefore, it is treated as correct according to the given rule.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited’s dividend per share in 2021 and how much did it increase to in 2022?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The dividend per share was 53 cents in 2021 and increased to 68 cents in 2022.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The dividend per share for Oversea-Chinese Banking Corporation Limited in 2021 was 53 cents, and it increased to 68 cents in 2022.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information exactly, stating the dividend per share for Oversea-Chinese Banking Corporation Limited was 53 cents in 2021 and increased to 68 cents in 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>What carbon neutrality achievement did OCBC reach in its banking operations and what is its net-zero commitment timeline according to the 2022 annual report?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality in its banking operations in 2022 and committed to reaching net-zero in its lending and investment businesses by 2050.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality for its banking operational emissions in 2022 and has committed to achieving net-zero in its lending and investments businesses by 2050.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer accurately reflects the ground truth information regarding OCBC's carbon neutrality achievement in 2022 for its banking operations and its commitment to reaching net-zero in its lending and investment businesses by 2050.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>What were OCBC's reported total income and operating expenses in 2021, and what was the change in total income by 2022?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>In 2021, the total income was S$10,139 million with operating expenses of S$4,439 million, and the total income increased to S$11.7 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>OCBC's reported total income in 2021 was $10.596 billion. The operating expenses for the same year were $4.764 billion. By 2022, the total income increased to $11.7 billion, indicating a growth of approximately 10%.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides different figures for OCBC's total income and operating expenses in 2021 compared to the ground truth. The ground truth states the total income was S$10,139 million and operating expenses were S$4,439 million, whereas the predicted answer states the total income was $10.596 billion and operating expenses were $4.764 billion. However, both the ground truth and the predicted answer agree on the total income increasing to $11.7 billion by 2022.", 
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>What key sustainability initiative related to education did OCBC commit to enhancing among its employees by 2025, based on the 2021 annual report?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OCBC committed another S$30 million to deepen sustainability education among its 30,000 employees by 2025.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OCBC committed another S$30 million to deepen sustainability education among its 30,000 employees by 2025.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that OCBC committed another S$30 million to deepen sustainability education among its 30,000 employees by 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>What percentage increase in net profit did OCBC achieve in 2022 compared to 2021, as stated in the annual reports?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an approximate 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that OCBC achieved an 18% increase in net profit in 2022 compared to 2021.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>What was Nestlé's organic growth reported in their 2023 annual review, and what does it reflect about their sales performance?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nestlé reported a 7.2% organic growth in their 2023 annual review, reflecting an increase in sales performance.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nestlé's organic growth reported in their 2023 annual review was 7.2%, reflecting cost inflation over the last two years with a pricing of 7.5% and a Real Internal Growth (RIG) of -0.3%. This indicates a strong sales performance driven primarily by increased pricing to offset cost inflation, despite a slight decline in volume or quantity of goods sold.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer correctly identifies the organic growth rate as 7.2%, which matches the ground truth. Additionally, it provides further context on what contributed to this growth, including the impact of pricing and Real Internal Growth (RIG), offering a more detailed analysis of Nestlé's sales performance. Therefore, the predicted answer is correct and aligns with the ground truth information.", 
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>What specific sustainability target related to packaging did Nestlé set for 2025 according to the 2023 Annual Review?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nestlé aimed to reduce virgin plastics by one third versus their 2018 baseline by 2025.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{
+"reason": "Since the predicted answer indicates an inability to provide the specific information requested, it acknowledges the lack of accurate data available up to the knowledge cutoff in 2023. Therefore, it can be treated as correct because it does not provide incorrect information.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>./docs\shell-annual-report-2023.pdf</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Shell plc's income in 2023 was $19.6 billion, compared to $42.9 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer closely matches the ground truth with specific figures that approximate the 'around $20 billion in 2023' and 'around $43 billion in 2022' figures mentioned in the ground truth. The slight differences in the figures are due to the precision of the predicted answer, which provides exact numbers rather than rounded figures.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$23 billion</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Shell plc returned approximately $26 billion to shareholders in 2023 through share buybacks and dividends.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The key information, which is the amount returned to shareholders by Shell plc in 2023 through share buybacks and dividends, does not match between the ground truth and the predicted answer. The ground truth states $23 billion, while the predicted answer states approximately $26 billion.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>How much did Shell plc plan to invest in oil and gas between 2023 and 2025?</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Around $40 billion</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Shell plc planned to invest around $40 billion in oil and gas between 2023 and 2025.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The predicted answer matches the ground truth answer exactly, stating the planned investment amount by Shell plc in oil and gas between 2023 and 2025 as around $40 billion.",
-"answer": True
-}</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating the planned investment amount by Shell plc in oil and gas between 2023 and 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>What was Shell plc's cash flow from operations in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Around $54 billion in 2023 compared to more than $68 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Shell plc's cash flow from operations in 2023 was $54.2 billion, compared to $68.4 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides specific figures ($54.2 billion for 2023 and $68.4 billion for 2022) that align closely with the ground truth description (around $54 billion in 2023 compared to more than $68 billion in 2022). Therefore, the key information in the predicted answer matches the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>What was the percentage reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>By the end of 2023, Shell plc reduced its total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by 31% compared to 2016 levels.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating a 31% reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, what percentage of their 2030 target to halve emissions in their own operations had Shell plc achieved compared with 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>More than 60%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, Shell plc had achieved more than 60% of their 2030 target to halve emissions in their own operations compared with 2016 levels.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information provided. It accurately states that Shell plc had achieved more than 60% of their 2030 target to halve emissions in their own operations compared with 2016 levels by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>How much did Shell plc plan to invest in Downstream, Renewables, and Energy Solutions between 2023 and 2025?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Around $35 billion</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Shell plc planned to invest around $35 billion in Downstream, Renewables, and Energy Solutions between 2023 and 2025.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that Shell plc planned to invest around $35 billion in Downstream, Renewables, and Energy Solutions between 2023 and 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>What was Shell plc's Adjusted Earnings in 2023?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Around $28 billion</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Shell plc's Adjusted Earnings in 2023 were $28,250 million.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer specifies the amount of Shell plc's Adjusted Earnings in 2023 as $28,250 million, which is essentially the same as the ground truth answer of around $28 billion, just presented in a different format (million vs billion). Therefore, the predicted answer is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>What was Shell plc's workforce size as of December 31, 2023?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Around 103,000 people</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Shell plc employed 103,000 people as of December 31, 2023.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The key information in the predicted answer matches the ground truth answer, which is the workforce size of Shell plc as of December 31, 2023, being around 103,000 people.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>What was the amount of cash capital expenditure by Shell plc in 2023?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$24 billion</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>The cash capital expenditure by Shell plc in 2023 was $24,392 million.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a more precise figure ($24,392 million) which is essentially the same as the ground truth answer when rounded to billions ($24 billion). Therefore, the key information in the predicted answer matches the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
     </row>
